--- a/database/industries/khodro/khodro/product/yearly.xlsx
+++ b/database/industries/khodro/khodro/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E80C50-9C81-4570-9959-D09600DA177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7254954-81D3-4E7C-ABE9-CE7E8119B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -638,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,7 +753,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -777,7 +777,7 @@
         <v>17357</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -825,7 +825,7 @@
         <v>49805</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -897,7 +897,7 @@
         <v>35629</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -921,7 +921,7 @@
         <v>50248</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>297731</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>451112</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1359,7 +1359,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1369,7 +1369,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>17322</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>50065</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>28379</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>55753</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>300041</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>40</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>27</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>30</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>31</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>42</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>35</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>36</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>455263</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2041,7 +2041,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>44</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2093,7 +2093,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>62233066</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>69947088</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>371565973</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>46153717</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>142975101</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>22</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>400524248</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>40</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>25</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>32</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>42</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>33</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>43</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>493431</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>4678693</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>38</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1098571317</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2701,7 +2701,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2711,7 +2711,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2721,7 +2721,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>46</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>3592718277</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>13</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>14</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>1397125497</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>15</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>1626333451</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2564437806</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>20</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>21</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>22</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1334898391</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>23</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>24</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>25</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>30</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>31</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>33</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>43</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1442780702</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1392053853</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3339,7 +3339,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
         <v>51</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3391,7 +3391,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>-58330066</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>14</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>-87959506</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>15</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>-349647339</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>18</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>-46467793</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>19</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>-138043518</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>20</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>-468934936</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>40</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
         <v>23</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
         <v>27</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
         <v>28</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
         <v>33</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
         <v>43</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
         <v>34</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>-608117</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>-4678693</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
         <v>38</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>-1154669968</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3855,7 +3855,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3865,7 +3865,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3875,7 +3875,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
         <v>52</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3907,7 +3907,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
         <v>10</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>3903000</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>14</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>-18012418</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>21918634</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>-314076</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
         <v>19</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>4931583</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>20</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
         <v>22</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>-68410688</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>40</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
         <v>23</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
         <v>24</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
         <v>25</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
         <v>28</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
         <v>33</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
         <v>43</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
         <v>34</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
         <v>35</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>-114686</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>38</v>
       </c>
